--- a/docs/VisualVM_CPU_Usage.xlsx
+++ b/docs/VisualVM_CPU_Usage.xlsx
@@ -429,7 +429,7 @@
     <t>Prozess: Login, Bestellung anzeigen, Kunden anzeigen, Kunden Details aufrufen und zurück zur Übersicht x 3 (ohne Änderung, mit Änderung, mit Validierungs-Fehler+Korrektur)</t>
   </si>
   <si>
-    <t>VisualVM Messung, 100 User Parallel (Jmeter RampUp 1Sekunde, Request-Timer 500ms)</t>
+    <t xml:space="preserve">VisualVM Messung, 100 User Parallel (Jmeter RampUp 1Sekunde, Request-Timer 500ms), System: Wildfly 9, gzipped, Intel Core i7, 2,6Ghz </t>
   </si>
 </sst>
 </file>
@@ -771,8 +771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
